--- a/doc/01_design/require.xlsx
+++ b/doc/01_design/require.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12740" yWindow="2220" windowWidth="27820" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve"> V0.1 2015-10-8
-POWERED BY SCW TEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SCW图片管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 账号: 上海一共20+个分区, 每个分区都有一个账号</t>
+    <t>一、 账号: 上海一共20+个分区, 每个分区都有一个账号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 主要功能: 每个账号都能上传若干个</t>
+    <t>2. 次要功能: 每个账号都能管理自己的信息。包括联系方式、密码等等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主要功能: 每个账号都能上传、下载、删除若干图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、 管理员: 设有若干个管理员, 该管理员能管理每个账号上传的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主要功能: 为每个账号上传的照片标记通过、打回状态, 填写打回理由。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.次要功能: 能查看所有管理员的管理操作日志。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、 超级管理员: 设有一个超级管理员来管理当前所有管理员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主要功能: 仅仅只能管理管理员, 查看管理员操作的功能，并无其他权限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> V0.2 2015-10-8
+POWERED BY SCW TEAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +88,22 @@
       <name val="黑体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Body Font"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Body Font"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,23 +122,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -452,383 +512,383 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="4" t="s">
-        <v>1</v>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -847,17 +907,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -865,9 +925,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/01_design/require.xlsx
+++ b/doc/01_design/require.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SCW图片管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>1.主要功能: 每个账号都能上传、下载、删除若干图片。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、 管理员: 设有若干个管理员, 该管理员能管理每个账号上传的图片。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.主要功能: 为每个账号上传的照片标记通过、打回状态, 填写打回理由。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.次要功能: 能查看所有管理员的管理操作日志。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,6 +48,22 @@
   <si>
     <t xml:space="preserve"> V0.2 2015-10-8
 POWERED BY SCW TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、 管理员: 设有若干个管理员, 该管理员能管理每个账号上传的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主要功能①: 为每个账号上传的照片标记通过、打回状态, 填写打回理由。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.主要功能②: 为每个账号添加问题图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.次要功能: 能查看所有管理员的管理操作日志。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +126,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,17 +162,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,7 +515,7 @@
   <dimension ref="B8:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -845,7 +869,7 @@
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -907,10 +931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -932,27 +956,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
